--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_016.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_016.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
-  </si>
-  <si>
-    <t>(295024EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK2.10) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Power range monitoring system</t>
-  </si>
-  <si>
-    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
-  </si>
-  <si>
-    <t>(295030EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(700000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator current limitations</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295023AK2.01) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel handling equipment</t>
-  </si>
-  <si>
-    <t>(295018AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Placing the standby heat exchanger in service</t>
-  </si>
-  <si>
-    <t>(295026EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AK2.04) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
-  </si>
-  <si>
-    <t>(295006AA1.03) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295007AK2.07) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(295017AA1.13) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Control room heating, ventilation and air conditioning</t>
-  </si>
-  <si>
-    <t>(295032EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
-  </si>
-  <si>
-    <t>(218000A2.05) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of electrical power to ADS</t>
-  </si>
-  <si>
-    <t>(223002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Individual system relay status</t>
-  </si>
-  <si>
-    <t>(264000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency core cooling systems</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
-  </si>
-  <si>
-    <t>(300000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Air dryers</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(510000K3.15) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system pressure</t>
-  </si>
-  <si>
-    <t>(259002K4.16) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dedication of feedwater string(s) to ECCS: FWCI</t>
-  </si>
-  <si>
-    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(215003A2.03) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(209001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
-  </si>
-  <si>
-    <t>(205000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Service water</t>
-  </si>
-  <si>
-    <t>(209002A3.08) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291006K1.03) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Basic heat transfer in a heat exchanger</t>
-  </si>
-  <si>
-    <t>(203000K2.01) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(215005K4.02) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(239002A4.05) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(223002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(201005K4.01) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Limiting the effects of a control rod accident</t>
-  </si>
-  <si>
-    <t>(230000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001A4.02) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main steam line drain valves </t>
-  </si>
-  <si>
-    <t>(234000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fuel pool ventilation malfunction</t>
-  </si>
-  <si>
-    <t>(219000A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Heat exchanger cooling flow</t>
-  </si>
-  <si>
-    <t>(201001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDH) CRD HYDRAULIC SYSTEM and the following systems: (CFR: 41.1-3 to 41.5-8 / 45.1-6 / 45.8) Condensate storage tanks</t>
-  </si>
-  <si>
-    <t>(223001A3.02) Ability to monitor automatic operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.7 / 45.7) Vacuum breaker/relief valve operation</t>
-  </si>
-  <si>
-    <t>(288000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.7) Heating, ventilation, and air conditioning system heating water system</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(245000K2.01) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Stator water cooling pumps</t>
-  </si>
-  <si>
-    <t>(201003K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) Rod position and indicating system (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Securing individual components (preventing equipment damage)</t>
+  </si>
+  <si>
+    <t>(295027EK2.01) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI: containment spray system mode</t>
+  </si>
+  <si>
+    <t>(700000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Grid frequency and voltage</t>
+  </si>
+  <si>
+    <t>(295023AA1.01) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) System isolations</t>
+  </si>
+  <si>
+    <t>(295016AK2.05) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
+  </si>
+  <si>
+    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(295025EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Low-low set initiation</t>
+  </si>
+  <si>
+    <t>(295024EK2.16) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
+  </si>
+  <si>
+    <t>(295029EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) HPCS</t>
+  </si>
+  <si>
+    <t>(295008AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Component erosion/damage</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Changing recirculation flow</t>
+  </si>
+  <si>
+    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) System initiation sequence </t>
+  </si>
+  <si>
+    <t>(264000A4.07) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of control to local/remote panels</t>
+  </si>
+  <si>
+    <t>(300000K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Air leaks</t>
+  </si>
+  <si>
+    <t>(262001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(239002K4.08) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Opening of the SRV from either an electrical or mechanical signal</t>
+  </si>
+  <si>
+    <t>(205000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump suction pressure</t>
+  </si>
+  <si>
+    <t>(223002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(209002K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(400000A2.09) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to spent fuel pool cooling system heat exchanger</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
+  </si>
+  <si>
+    <t>(218000A4.01) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS valves</t>
+  </si>
+  <si>
+    <t>(209001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Testable check valve operation</t>
+  </si>
+  <si>
+    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(211000K4.03) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Keeping sodium pentaborate in solution</t>
+  </si>
+  <si>
+    <t>(215003A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM and rod block trip setpoints</t>
+  </si>
+  <si>
+    <t>(215005K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) TIP</t>
+  </si>
+  <si>
+    <t>(259002K3.08) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291001K1.09) VALVES (CFR: 41.3) The stroke test for a valve, including the use of a stopwatch</t>
+  </si>
+  <si>
+    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
+  </si>
+  <si>
+    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
+  </si>
+  <si>
+    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
+  </si>
+  <si>
+    <t>(239001A2.10) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Closure of one or more MSIVs at power</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(204000A3.07) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
+  </si>
+  <si>
+    <t>(201005A4.02) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Rod display module (lights and push buttons)</t>
+  </si>
+  <si>
+    <t>(241000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Turbine inlet pressure vs. turbine load</t>
+  </si>
+  <si>
+    <t>(268000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 RW) RADWASTE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(226001K4.11) Knowledge of (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of leakage to the environment through system heat exchanger</t>
+  </si>
+  <si>
+    <t>(510001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(202001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Jet pumps</t>
+  </si>
+  <si>
+    <t>(271000K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Condenser vacuum</t>
+  </si>
+  <si>
+    <t>(219000K2.03) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
-  </si>
-  <si>
-    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
-  </si>
-  <si>
-    <t>(292008K1.12) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Describe reactor power and period response prior to reaching the POAH</t>
-  </si>
-  <si>
-    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
-  </si>
-  <si>
-    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
-  </si>
-  <si>
-    <t>(293009K1.10) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define APLHGR</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000A2.02) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low surge tank level</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215001A2.08) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to retract to shield (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(233000A2.18) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low pool clarity</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
+  </si>
+  <si>
+    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
+  </si>
+  <si>
+    <t>(292008K1.01) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) List parameters that should be monitored and controlled during the approach to criticality</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(293009K1.11) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Explain the basis of the limiting condition for APLGHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295033EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Area radiation levels </t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(223002A2.06) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Containment instrumentation failures</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(212000A2.11) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(234000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Mechanically bound fuel assembly</t>
+  </si>
+  <si>
+    <t>(215001A2.06) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>A3</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295017</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
     <t>234000</t>
   </si>
   <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
     <t>215001</t>
   </si>
   <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>233000</t>
+    <t>259001</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
